--- a/fuentes/contenidos/grado08/guion06/FormatoSolicitudVideos CN_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/FormatoSolicitudVideos CN_08_06_CO.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Área</t>
   </si>
@@ -57,9 +57,6 @@
     <t>AP</t>
   </si>
   <si>
-    <t>Recurso</t>
-  </si>
-  <si>
     <t>Las etapas de la mitosis</t>
   </si>
   <si>
@@ -72,7 +69,19 @@
     <t>Las leyes de Mendel</t>
   </si>
   <si>
-    <t>Cambiar acento. La primera frase del audio cambia de La genética es la ciencia que estudia la transmisión de los caracteres morfológicos y biológicos que pasan de generación en generación” a "La genética es la ciencia que estudia la transmisión de los caracteres biológicos que pasan de generación en generación”</t>
+    <t>Media principal</t>
+  </si>
+  <si>
+    <t>AN010216</t>
+  </si>
+  <si>
+    <t>vin00102</t>
+  </si>
+  <si>
+    <t>VIN00104</t>
+  </si>
+  <si>
+    <t>Cambiar acento. La primera frase del audio cambia de "La genética es la ciencia que estudia la transmisión de los caracteres morfológicos y biológicos que pasan de generación en generación” a "La genética es la ciencia que estudia la transmisión de los caracteres biológicos que pasan de generación en generación”</t>
   </si>
 </sst>
 </file>
@@ -498,17 +507,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
@@ -522,17 +533,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
@@ -546,23 +559,25 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
@@ -735,7 +750,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -745,7 +760,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
@@ -755,7 +770,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
@@ -765,7 +780,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
@@ -775,7 +790,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
@@ -785,7 +800,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
@@ -795,7 +810,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
@@ -805,7 +820,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
@@ -815,7 +830,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="4"/>
